--- a/pred_ohlcv/54_21/2020-01-20 NPXS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 NPXS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>61607360.60491409</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>61607360.60491409</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>62031233.76681409</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>92428669.18511409</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>92587065.73019856</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>97356979.34369856</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>97341542.46079856</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>76227107.23929858</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>77978333.34019858</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>77978333.34019858</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>78383583.34019858</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>78410833.34019858</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>77641311.29909858</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>77841623.30339858</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>63486173.30339858</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>43686173.30339858</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>41264032.36339858</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>35575358.98878022</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>31525358.98878022</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>31525358.98878022</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>31528358.98878022</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>16718358.98878022</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1819062.337980222</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1819062.337980222</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1719062.337980222</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1986688.337980222</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-21883537.96591978</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-24345848.31601978</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-23695848.31601978</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-22090221.51681978</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-23692607.51681978</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-23912629.51681978</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-54877888.92731977</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-54869238.92731977</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-54888244.77981977</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-54873653.07127706</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-54891006.16647706</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-54911513.92477706</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-55473786.16607706</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-58593786.16607706</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-59773847.38277707</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-59773847.38277707</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-52467625.07207707</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-56113111.61967707</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-60183223.05287707</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-63421146.12727707</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-63068320.90217707</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-63250139.08397707</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-82856564.56187707</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-71258354.73527707</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-78579482.75897709</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-61134265.22097709</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-61234088.49907709</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-61471895.4809771</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-58169385.5734771</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-54873406.6677771</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-54892363.7635771</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-55129221.7635771</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 NPXS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 NPXS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>29694834.91481409</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>61607360.60491409</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>61607360.60491409</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>62031233.76681409</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>92587065.73019856</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>97356979.34369856</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>97341542.46079856</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>98640427.62389857</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>98640427.62389857</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>76227107.23929858</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>77978333.34019858</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>78383583.34019858</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>78410833.34019858</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>77641311.29909858</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>77641311.29909858</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>77841623.30339858</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>63486173.30339858</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>43486173.30339858</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>43686173.30339858</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>43686173.30339858</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>41264032.36339858</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>33839377.53779858</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>33603140.53779858</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>16718358.98878022</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-21883537.96591978</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-24345848.31601978</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-23695848.31601978</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-22090221.51681978</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-23692607.51681978</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-23912629.51681978</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-53175593.18691977</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-53156587.33441977</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-53153254.33441977</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-54877888.92731977</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-54877888.92731977</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-54869238.92731977</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-54888244.77981977</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-54873653.07127706</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-54891006.16647706</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-54911513.92477706</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-55473786.16607706</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-58593786.16607706</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-58593786.16607706</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-59773847.38277707</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-59773847.38277707</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-52467625.07207707</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-56113111.61967707</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-60183223.05287707</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-63421146.12727707</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-63068320.90217707</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-63250139.08397707</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-82856564.56187707</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-82856564.56187707</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-69912089.21927707</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-71258354.73527707</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-61234088.49907709</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-61471895.4809771</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-58169385.5734771</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-54873406.6677771</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-54892363.7635771</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-55129221.7635771</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
